--- a/input/TalentX.xlsx
+++ b/input/TalentX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilasruthy\eclipse-workspace\MobileAutomationFramewrk\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shalini\Mobile Application\MobileAutomationFramewrk\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A4601-AB19-4FEB-A7B9-3BA31ACC45D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC3DBC-4DFD-4643-9FEA-E39AD7F7DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{27BC8E43-4EB6-4ED1-99D6-D7D447CC3B0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{27BC8E43-4EB6-4ED1-99D6-D7D447CC3B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="TalentX" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>9999999995</t>
+    <t>9025663147</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
